--- a/SOBRADINHO.xlsx
+++ b/SOBRADINHO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66E9DEFB-774D-47DD-8F13-AEB496762279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E217ED1-17A3-43B0-BE9F-48470F2CF35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1197,7 +1197,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{90DF9847-6F1D-4A9A-97D3-05F5EAA43778}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{34385E18-7A51-4516-A015-B02E833E2F4B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1227,10 +1227,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281D0929-9A2A-4AD2-8B59-A2FE1C35BA34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FE14BA-DCDD-44C5-B140-53B3564C0757}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1268,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FAB2F30-AFFE-4021-9D33-C2399526D8CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A5B77C-3C0C-45F7-AAF7-534CC48C0CDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1331,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1CC1FE5-6C56-4BCA-A2A7-31912E5891D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54EA27DF-DA9C-48B4-9909-2CEB5DC353CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1350,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EACD3F58-7431-0CD0-B1A4-A8C91D72220E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAA9707-2402-9301-6DA8-904B4FB35D33}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1399,7 +1399,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E959315A-D9AD-31F9-A4EF-BC76A0F85C01}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5AC60D8-7D76-21AF-41CD-169B137B4D31}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1418,7 +1418,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A433621-0FC9-C406-7483-C031D891338F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AAA30EA-C86A-0AAC-0534-B196FA0B8F25}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1449,7 +1449,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A01EE6-EDCA-3BCF-578D-8CA8D1CC4169}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE5AB3F-25D6-1602-8778-4A3ED80A536D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1480,7 +1480,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FD7263-238C-DB71-99F4-65CE1015E595}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01388A3F-FD48-7BDE-CDF4-73B3271694EF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1523,7 +1523,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6EF031-68CF-4FE4-8084-A274A6B6F40E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80D911A-A92F-4A99-AB9D-39682F3E7388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +1561,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02AD93B-C010-4528-A9AC-F4BED46146D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F578AA-80B3-4E12-A8F6-1DC46404F92E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1604,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084E1667-6BC7-430A-B1BF-290000CF4419}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329F9969-08D9-4EF0-8CAB-566373418485}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3D61D6-EAEB-455E-A594-70F6F2CF664A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023E8771-0971-4C5E-A182-6FE15B7F76FE}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SOBRADINHO.xlsx
+++ b/SOBRADINHO.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E217ED1-17A3-43B0-BE9F-48470F2CF35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B78CB3D-A05A-4AFF-A5AA-C72542897134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="297">
   <si>
     <t>COMARCA</t>
   </si>
@@ -917,15 +916,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SOBRADINHO</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1177,27 +1167,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{34385E18-7A51-4516-A015-B02E833E2F4B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{84FB27E5-C42A-4590-9963-1F4F165425AC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1227,10 +1202,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62FE14BA-DCDD-44C5-B140-53B3564C0757}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5893B18A-9C06-4FF8-BE1E-E7FCA3253E54}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1243,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A5B77C-3C0C-45F7-AAF7-534CC48C0CDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B400B7B9-0C06-4B10-B412-542108F71AEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1306,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54EA27DF-DA9C-48B4-9909-2CEB5DC353CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56AAA3B1-59E0-483E-A6F0-4C3C8E761C74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1325,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAA9707-2402-9301-6DA8-904B4FB35D33}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981EF9CF-8051-9AD2-5E58-43CA23417EBA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1399,7 +1374,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5AC60D8-7D76-21AF-41CD-169B137B4D31}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB40BCD-17AF-9171-4C8A-70428960F819}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1418,7 +1393,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AAA30EA-C86A-0AAC-0534-B196FA0B8F25}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07CA9068-130E-3495-6910-2BC85F5A25D0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1449,7 +1424,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE5AB3F-25D6-1602-8778-4A3ED80A536D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3AB009F-B603-0CBB-5555-CC8DEC5989C5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1480,7 +1455,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01388A3F-FD48-7BDE-CDF4-73B3271694EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F82AFF3-5A39-F006-4B32-E6241EFDFDFB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1523,7 +1498,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80D911A-A92F-4A99-AB9D-39682F3E7388}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC4762B-5576-44DB-8A81-EAA9E51B96A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +1536,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F578AA-80B3-4E12-A8F6-1DC46404F92E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B6CE7D-07AC-4078-9E77-094AD8F45DEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1579,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329F9969-08D9-4EF0-8CAB-566373418485}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5EF3B56-1936-4CED-88CD-0AD1ADE47ED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023E8771-0971-4C5E-A182-6FE15B7F76FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CC2177-E4B8-4576-BC48-CC82616F6BC8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1929,98 +1904,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="33"/>
-    <col min="6" max="6" width="2" style="33" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="33"/>
+    <col min="1" max="5" width="12.5703125" style="28"/>
+    <col min="6" max="6" width="2" style="28" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="28" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="32"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="32"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="32"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="32"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="32"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="32"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="32"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="32"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="32"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="32"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="32"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="32"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="32"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="32"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="32"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="32"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="32"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="32"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="32"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="32"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="32"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="32"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="32"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="32"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="32"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="32"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="32"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="32"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="32"/>
+      <c r="F29" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5455,52 +5430,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" s="28">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="31">
-        <v>39</v>
-      </c>
-      <c r="C2" s="29">
-        <v>2.5790239386324562E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SOBRADINHO.xlsx
+++ b/SOBRADINHO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B78CB3D-A05A-4AFF-A5AA-C72542897134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73CC1A67-17C4-4AE0-A905-2E81A31270B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{84FB27E5-C42A-4590-9963-1F4F165425AC}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{741E2267-58E4-46C5-8FEC-89082733D3C7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1202,10 +1202,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5893B18A-9C06-4FF8-BE1E-E7FCA3253E54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3B08F6-CC3B-49EC-B8BF-5E0C2CAE3131}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1243,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B400B7B9-0C06-4B10-B412-542108F71AEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECB1E15-F5B6-4C68-8FFC-987555BF101A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1306,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56AAA3B1-59E0-483E-A6F0-4C3C8E761C74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127DB4A3-0057-4D04-9D5C-2D50905E3A0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1325,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981EF9CF-8051-9AD2-5E58-43CA23417EBA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{207382C2-3E57-BDDC-697C-D7B4404EB8A2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1374,7 +1374,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB40BCD-17AF-9171-4C8A-70428960F819}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469C3EBA-8614-2284-60B9-9E73C8BF2A21}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1393,7 +1393,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07CA9068-130E-3495-6910-2BC85F5A25D0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC35949-4A66-ED9A-ABE2-98C80347E9AE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1424,7 +1424,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3AB009F-B603-0CBB-5555-CC8DEC5989C5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D028D7B-2D51-76A6-E9ED-CD35144BA0E0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F82AFF3-5A39-F006-4B32-E6241EFDFDFB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59931190-F943-49A9-2148-1D955D686842}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1498,7 +1498,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC4762B-5576-44DB-8A81-EAA9E51B96A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB69550-1A27-407D-89FC-A023D2C92944}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1536,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B6CE7D-07AC-4078-9E77-094AD8F45DEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99893F75-C5F4-4E04-B4FA-830125833F63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,50 +1561,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5EF3B56-1936-4CED-88CD-0AD1ADE47ED3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1892,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CC2177-E4B8-4576-BC48-CC82616F6BC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D366D4E-A9E5-4FF9-B5A3-5A00245C49BE}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
